--- a/biology/Zoologie/Homopus/Homopus.xlsx
+++ b/biology/Zoologie/Homopus/Homopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homopus est un genre de tortues de la famille des Testudinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homopus est un genre de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent en Afrique du Sud et en Namibie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent en Afrique du Sud et en Namibie.
 Elle ne vivent à l'état naturel qu'en réserve. De plus, elles sont très rares en captivité.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre regroupe des petites espèces à carapace relativement aplaties. La taille de leur carapace est comprise de 10 à 17 centimètres. Les mâles sont plus petits que les femelles. Toutes ces espèces sont mal connues. Aucun travail scientifique n'a été mené pour connaitre les effectifs réels.
 Les Homopus sont menacés par les accidents d'auto, le changement de climat, le surpâturage, les prélèvements sauvages pour en faire des NAC.
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (26 juin 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (26 juin 2011) :
 Homopus areolatus (Thunberg 1787) — Homopode aréolé
 Homopus boulengeri Duerden 1906 — Homopode de Boulenger
 Homopus femoralis Boulenger, 1888 — Homopode à éperon ou homopode éperonné
@@ -612,7 +630,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom scientifique de ces tortues, après plusieurs approximations, s'est fixé au début du XXe siècle pour les quatre espèces sud-africaines. L'espèce namibienne Homopus solus a longtemps été nommée par erreur Homopus bergeri qui est un synonyme de Psammobates tentorius verroxii.
 </t>
@@ -643,7 +663,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Homopus dérive du fait que les quatre pattes de deux des cinq espèces sont munies de quatre griffes. Les autres espèces disposent de cinq griffes sur les pattes de devant. 
 </t>
@@ -674,7 +696,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1834 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. Paris, Roret, vol. 1, p. 1–439 (texte intégral).</t>
         </is>
